--- a/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 6,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; 4,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 11,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 7,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 7,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 5,22</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 7,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; 4,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 13,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 8,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 7,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 5,58</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,98; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,11; 11,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 15,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 14,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,38; 6,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 9,73</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,68; 5,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,19; 13,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; 18,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 16,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 6,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 11,14</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,73; 18,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,11; 28,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,66; 17,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 20,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 22,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,69; 40,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,92; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 20,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 26,73</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 2,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 5,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 8,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 6,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 4,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 3,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; 5,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 9,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 7,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 4,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 5,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B13-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 6,61</t>
+          <t>-3,11; 6,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,09</t>
+          <t>-9,22; 3,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,73</t>
+          <t>1,23; 10,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,79</t>
+          <t>-3,53; 7,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,0</t>
+          <t>0,19; 7,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,22</t>
+          <t>-3,12; 5,32</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,15</t>
+          <t>-3,11; 6,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 4,26</t>
+          <t>-9,41; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,29</t>
+          <t>1,24; 11,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 8,45</t>
+          <t>-3,53; 8,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,57</t>
+          <t>0,19; 8,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 5,58</t>
+          <t>-3,17; 5,68</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 5,14</t>
+          <t>-20,24; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 11,72</t>
+          <t>-13,87; 10,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 15,1</t>
+          <t>-4,21; 14,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 14,21</t>
+          <t>-4,86; 14,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 6,15</t>
+          <t>-10,24; 6,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 9,73</t>
+          <t>-6,99; 9,16</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 5,59</t>
+          <t>-20,89; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 13,64</t>
+          <t>-14,11; 11,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 18,39</t>
+          <t>-4,37; 17,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 16,97</t>
+          <t>-4,99; 16,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 6,76</t>
+          <t>-10,65; 6,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 11,14</t>
+          <t>-7,06; 10,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 18,67</t>
+          <t>-36,55; 19,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 28,62</t>
+          <t>-18,16; 33,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 0,0</t>
+          <t>-21,2; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 0,0</t>
+          <t>-21,79; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 17,1</t>
+          <t>-15,96; 17,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 20,42</t>
+          <t>-10,74; 23,9</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 22,94</t>
+          <t>-39,25; 23,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 40,03</t>
+          <t>-19,0; 50,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 0,0</t>
+          <t>-21,2; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 0,0</t>
+          <t>-21,79; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 20,78</t>
+          <t>-16,65; 21,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 26,73</t>
+          <t>-11,1; 31,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,91</t>
+          <t>-10,89; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 5,4</t>
+          <t>-9,22; 5,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,42</t>
+          <t>-0,13; 7,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,75</t>
+          <t>-2,55; 6,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,25</t>
+          <t>-3,23; 4,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,9</t>
+          <t>-3,51; 4,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 3,04</t>
+          <t>-11,19; 3,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 5,86</t>
+          <t>-9,63; 6,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 9,33</t>
+          <t>-0,08; 8,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 7,42</t>
+          <t>-2,59; 7,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,62</t>
+          <t>-3,35; 4,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,34</t>
+          <t>-3,61; 4,84</t>
         </is>
       </c>
     </row>
